--- a/Lecture 07/data/features_stored.xlsx
+++ b/Lecture 07/data/features_stored.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="505">
   <si>
-    <t>Unnamed: 0.5</t>
+    <t>Unnamed: 0</t>
   </si>
   <si>
     <t>Unnamed: 0.4</t>
@@ -31,7 +31,7 @@
     <t>Unnamed: 0.1</t>
   </si>
   <si>
-    <t>Unnamed: 0</t>
+    <t>Unnamed: 0.1.1</t>
   </si>
   <si>
     <t>mpg</t>
